--- a/HAIR/ex02_HAIR_glossary.xlsx
+++ b/HAIR/ex02_HAIR_glossary.xlsx
@@ -36,7 +36,15 @@
     <t>Система для управления взаимоотношениями с клиентами.</t>
   </si>
   <si>
-    <t>https://ru.wikipedia.org/wiki/%D0%A1%D0%B8%D1%81%D1%82%D0%B5%D0%BC%D0%B0_%D1%83%D0%BF%D1%80%D0%B0%D0%B2%D0%BB%D0%B5%D0%BD%D0%B8%D1%8F_%D0%B2%D0%B7%D0%B0%D0%B8%D0%BC%D0%BE%D0%BE%D1%82%D0%BD%D0%BE%D1%88%D0%B5%D0%BD%D0%B8%D1%8F%D0%BC%D0%B8_%D1%81_%D0%BA%D0%BB%D0%B8%D0%B5%D0%BD%D1%82%D0%B0%D0%BC%D0%B8</t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="8.0"/>
+        <u/>
+      </rPr>
+      <t>https://ru.wikipedia.org/wiki/%D0%A1%D0%B8%D1%81%D1%82%D0%B5%D0%BC%D0%B0_%D1%83%D0%BF%D1%80%D0%B0%D0%B2%D0%BB%D0%B5%D0%BD%D0%B8%D1%8F_%D0%B2%D0%B7%D0%B0%D0%B8%D0%BC%D0%BE%D0%BE%D1%82%D0%BD%D0%BE%D1%88%D0%B5%D0%BD%D0%B8%D1%8F%D0%BC%D0%B8_%D1%81_%D0%BA%D0%BB%D0%B8%D0%B5%D0%BD%D1%82%D0%B0%D0%BC%D0%B8</t>
+    </r>
   </si>
   <si>
     <t>BSA 00</t>
@@ -45,19 +53,35 @@
     <t>Стейкхолдер</t>
   </si>
   <si>
-    <t>Лицо или организация, заинтересованная в проекте или влияющая на его реализацию.</t>
-  </si>
-  <si>
-    <t>https://ru.wikipedia.org/wiki/%D0%A1%D1%82%D0%B5%D0%B9%D0%BA%D1%85%D0%BE%D0%BB%D0%B4%D0%B5%D1%80</t>
+    <t>Лицо или организация, заинтересованные в проекте или влияющие на его реализацию.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="8.0"/>
+        <u/>
+      </rPr>
+      <t>https://ru.wikipedia.org/wiki/%D0%A1%D1%82%D0%B5%D0%B9%D0%BA%D1%85%D0%BE%D0%BB%D0%B4%D0%B5%D1%80</t>
+    </r>
   </si>
   <si>
     <t>Персональные данные</t>
   </si>
   <si>
-    <t>Информация, относящаяся к идентифицируемому лицу.</t>
-  </si>
-  <si>
-    <t>https://ru.wikipedia.org/wiki/%D0%9F%D0%B5%D1%80%D1%81%D0%BE%D0%BD%D0%B0%D0%BB%D1%8C%D0%BD%D1%8B%D0%B5_%D0%B4%D0%B0%D0%BD%D0%BD%D1%8B%D0%B5</t>
+    <t>Информация, относящаяся к идентифицированному или идентифицируемому лицу.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="8.0"/>
+        <u/>
+      </rPr>
+      <t>https://ru.wikipedia.org/wiki/%D0%9F%D0%B5%D1%80%D1%81%D0%BE%D0%BD%D0%B0%D0%BB%D1%8C%D0%BD%D1%8B%D0%B5_%D0%B4%D0%B0%D0%BD%D0%BD%D1%8B%D0%B5</t>
+    </r>
   </si>
   <si>
     <t>Обработка персональных данных</t>
@@ -66,61 +90,117 @@
     <t>Действия с персональными данными, включая сбор, хранение и передачу.</t>
   </si>
   <si>
-    <t>https://10.rkn.gov.ru/docs/10/Pravila_obrabotki_PD.pdf</t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="8.0"/>
+        <u/>
+      </rPr>
+      <t>https://10.rkn.gov.ru/docs/10/Pravila_obrabotki_PD.pdf</t>
+    </r>
   </si>
   <si>
     <t>Онлайн-система</t>
   </si>
   <si>
-    <t>Платформа для онлайн-регистрации и управления заказами и доставкой.</t>
-  </si>
-  <si>
-    <t>https://blog.skillfactory.ru/glossary/onlajn/</t>
-  </si>
-  <si>
-    <t>Курьер</t>
-  </si>
-  <si>
-    <t>Лицо, которое доставляет товар от точки комплектации до клиента.</t>
-  </si>
-  <si>
-    <t>https://ru.wikipedia.org/wiki/%D0%9A%D1%83%D1%80%D1%8C%D0%B5%D1%80</t>
-  </si>
-  <si>
-    <t>Диспетчер</t>
-  </si>
-  <si>
-    <t>Сотрудник, координирующий работу курьеров и распределяющий заказы.</t>
-  </si>
-  <si>
-    <t>https://ru.wikipedia.org/wiki/%D0%94%D0%B8%D1%81%D0%BF%D0%B5%D1%82%D1%87%D0%B5%D1%80</t>
-  </si>
-  <si>
-    <t>Сборщик товаров</t>
-  </si>
-  <si>
-    <t>Работник, комплектующий заказ для доставки.</t>
-  </si>
-  <si>
-    <t>https://postupi.online/professiya/sborschik/#:~:text=%D0%9E%20%D0%BF%D1%80%D0%BE%D1%84%D0%B5%D1%81%D1%81%D0%B8%D0%B8%20%D1%81%D0%B1%D0%BE%D1%80%D1%89%D0%B8%D0%BA%D0%B0&amp;text=%D0%97%D0%B0%D0%B4%D0%B0%D1%87%D0%B5%D0%B9%20%D1%81%D0%B1%D0%BE%D1%80%D1%89%D0%B8%D0%BA%D0%B0%20%D1%8F%D0%B2%D0%BB%D1%8F%D0%B5%D1%82%D1%81%D1%8F%20%D0%BE%D0%B1%D0%B5%D1%81%D0%BF%D0%B5%D1%87%D0%B5%D0%BD%D0%B8%D0%B5%20%D0%BA%D0%BE%D1%80%D1%80%D0%B5%D0%BA%D1%82%D0%BD%D0%BE%D0%B9,%D0%B4%D0%BE%20%D0%B0%D0%B2%D1%82%D0%BE%D0%BC%D0%BE%D0%B1%D0%B8%D0%BB%D1%8C%D0%BD%D0%BE%D0%B9%20%D0%B8%20%D0%B0%D0%B2%D0%B8%D0%B0%D1%86%D0%B8%D0%BE%D0%BD%D0%BD%D0%BE%D0%B9%20%D0%BF%D1%80%D0%BE%D0%BC%D1%8B%D1%88%D0%BB%D0%B5%D0%BD%D0%BD%D0%BE%D1%81%D1%82%D0%B8.</t>
-  </si>
-  <si>
-    <t>Водитель</t>
-  </si>
-  <si>
-    <t>Лицо, управляющее транспортным средством для доставки товаров.</t>
-  </si>
-  <si>
-    <t>https://ru.wikipedia.org/wiki/%D0%92%D0%BE%D0%B4%D0%B8%D1%82%D0%B5%D0%BB%D1%8C</t>
+    <t>Платформа для онлайн-регистрации и управления записями клиентов.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="8.0"/>
+        <u/>
+      </rPr>
+      <t>https://blog.skillfactory.ru/glossary/onlajn/</t>
+    </r>
+  </si>
+  <si>
+    <t>Мастер</t>
+  </si>
+  <si>
+    <t>Специалист, оказывающий услуги клиентам (парикмахер или косметолог).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="8.0"/>
+        <u/>
+      </rPr>
+      <t>https://cleverbox-crm.com/ru/blog/kategorii-masterov-v-salone-krasotu.html</t>
+    </r>
+  </si>
+  <si>
+    <t>Менеджер</t>
+  </si>
+  <si>
+    <t>Лицо, управляющее расписанием, взаимодействием с клиентами и оплатами.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="8.0"/>
+        <u/>
+      </rPr>
+      <t>https://ru.wikipedia.org/wiki/%D0%9C%D0%B5%D0%BD%D0%B5%D0%B4%D0%B6%D0%B5%D1%80</t>
+    </r>
+  </si>
+  <si>
+    <t>Типы услуг</t>
+  </si>
+  <si>
+    <t>Категории услуг, оказываемых мастерами, например, стрижка или косметология.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="8.0"/>
+        <u/>
+      </rPr>
+      <t>https://www.belapk.ru/media/site_platform_media/2022/8/3/gost-r-51142-2019.pdf</t>
+    </r>
+  </si>
+  <si>
+    <t>Расписание мастеров и услуг</t>
+  </si>
+  <si>
+    <t>График работы мастеров и доступных услуг.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="8.0"/>
+        <u/>
+      </rPr>
+      <t>https://salon1c.ru/blog/kak-sozdat-effektivnoe-raspisanie-v-salone-krasoty-programma/</t>
+    </r>
   </si>
   <si>
     <t>Оплата услуг</t>
   </si>
   <si>
-    <t>Процесс расчета и приема оплаты за доставку.</t>
-  </si>
-  <si>
-    <t>https://www.consultant.ru/document/cons_doc_LAW_9027/2db588b17543c1f6e0ce72c2f3d04f219c0503a7/</t>
+    <t>Процесс расчета и приема оплаты за оказанные услуги.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="8.0"/>
+        <u/>
+      </rPr>
+      <t>https://www.consultant.ru/document/cons_doc_LAW_9027/2db588b17543c1f6e0ce72c2f3d04f219c0503a7/</t>
+    </r>
   </si>
   <si>
     <t>Бухгалтерия</t>
@@ -129,23 +209,39 @@
     <t>Отдел, отвечающий за учет оплаты и отчетность.</t>
   </si>
   <si>
-    <t>https://ru.wikipedia.org/wiki/%D0%91%D1%83%D1%85%D0%B3%D0%B0%D0%BB%D1%82%D0%B5%D1%80%D0%B8%D1%8F</t>
-  </si>
-  <si>
-    <t>Отзывы</t>
-  </si>
-  <si>
-    <t>Процесс получения отзывов от клиентов после доставки.</t>
-  </si>
-  <si>
-    <t>https://ru.wikipedia.org/wiki/%D0%9A%D0%BE%D0%BD%D0%B2%D0%B5%D1%80%D1%81%D0%B8%D0%BE%D0%BD%D0%BD%D1%8B%D0%B9_%D0%BC%D0%B0%D1%80%D0%BA%D0%B5%D1%82%D0%B8%D0%BD%D0%B3</t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="8.0"/>
+        <u/>
+      </rPr>
+      <t>https://ru.wikipedia.org/wiki/%D0%91%D1%83%D1%85%D0%B3%D0%B0%D0%BB%D1%82%D0%B5%D1%80%D0%B8%D1%8F</t>
+    </r>
+  </si>
+  <si>
+    <t>Сбор отзывов</t>
+  </si>
+  <si>
+    <t>Процесс получения отзывов от клиентов после оказания услуг.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="8.0"/>
+        <u/>
+      </rPr>
+      <t>https://ru.wikipedia.org/wiki/%D0%9A%D0%BE%D0%BD%D0%B2%D0%B5%D1%80%D1%81%D0%B8%D0%BE%D0%BD%D0%BD%D1%8B%D0%B9_%D0%BC%D0%B0%D1%80%D0%BA%D0%B5%D1%82%D0%B8%D0%BD%D0%B3</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -153,7 +249,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -165,28 +260,40 @@
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <i/>
+      <sz val="8.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="8.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
-      <color theme="10"/>
+      <sz val="8.0"/>
+      <color rgb="FF1155CC"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8.0"/>
+      <color rgb="FF1155CC"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8.0"/>
+      <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,20 +302,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFCCCCCC"/>
+        <fgColor rgb="FFD4D4D4"/>
+        <bgColor rgb="FFD4D4D4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC5C4C4"/>
         <bgColor rgb="FFC5C4C4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD4D4D4"/>
-        <bgColor rgb="FFD4D4D4"/>
       </patternFill>
     </fill>
     <fill>
@@ -221,58 +322,58 @@
   <borders count="5">
     <border/>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color rgb="FF9A9A9A"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF9A9A9A"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF9A9A9A"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF9A9A9A"/>
       </bottom>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color rgb="FF9A9A9A"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF9A9A9A"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
         <color rgb="FF9A9A9A"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF9A9A9A"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF9A9A9A"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color rgb="FF9A9A9A"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF9A9A9A"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF9A9A9A"/>
       </bottom>
     </border>
@@ -280,18 +381,27 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -300,15 +410,27 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -539,226 +661,239 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" ht="51.0" customHeight="1">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>1.0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" ht="51.0" customHeight="1">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>2.0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="14" t="s">
         <v>7</v>
       </c>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" ht="51.0" customHeight="1">
-      <c r="A4" s="3">
+      <c r="A4" s="6">
         <v>3.0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="14" t="s">
         <v>7</v>
       </c>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" ht="51.0" customHeight="1">
-      <c r="A5" s="3">
+      <c r="A5" s="6">
         <v>4.0</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="14" t="s">
         <v>7</v>
       </c>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" ht="51.0" customHeight="1">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <v>5.0</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="14" t="s">
         <v>7</v>
       </c>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" ht="51.0" customHeight="1">
-      <c r="A7" s="3">
+      <c r="A7" s="6">
         <v>6.0</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="14" t="s">
         <v>7</v>
       </c>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" ht="51.0" customHeight="1">
-      <c r="A8" s="3">
+      <c r="A8" s="6">
         <v>7.0</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="14" t="s">
         <v>7</v>
       </c>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" ht="51.0" customHeight="1">
-      <c r="A9" s="3">
+      <c r="A9" s="6">
         <v>8.0</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="14" t="s">
         <v>7</v>
       </c>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" ht="51.0" customHeight="1">
-      <c r="A10" s="3">
+      <c r="A10" s="6">
         <v>9.0</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="14" t="s">
         <v>7</v>
       </c>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" ht="51.0" customHeight="1">
-      <c r="A11" s="3">
+      <c r="A11" s="6">
         <v>10.0</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="14" t="s">
         <v>7</v>
       </c>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" ht="51.0" customHeight="1">
-      <c r="A12" s="3">
+      <c r="A12" s="6">
         <v>11.0</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="14" t="s">
         <v>7</v>
       </c>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" ht="51.0" customHeight="1">
-      <c r="A13" s="3">
+      <c r="A13" s="6">
         <v>12.0</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="14" t="s">
         <v>7</v>
       </c>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" ht="14.25" customHeight="1"/>
     <row r="16" ht="14.25" customHeight="1"/>
@@ -1755,7 +1890,7 @@
     <hyperlink r:id="rId5" ref="D6"/>
     <hyperlink r:id="rId6" ref="D7"/>
     <hyperlink r:id="rId7" ref="D8"/>
-    <hyperlink r:id="rId8" location=":~:text=%D0%9E%20%D0%BF%D1%80%D0%BE%D1%84%D0%B5%D1%81%D1%81%D0%B8%D0%B8%20%D1%81%D0%B1%D0%BE" ref="D9"/>
+    <hyperlink r:id="rId8" ref="D9"/>
     <hyperlink r:id="rId9" ref="D10"/>
     <hyperlink r:id="rId10" ref="D11"/>
     <hyperlink r:id="rId11" ref="D12"/>
